--- a/Dokumente/Klassen + Methoden propo.xlsx
+++ b/Dokumente/Klassen + Methoden propo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Webseiten\VerstaltungsPlaner\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Wer</t>
   </si>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,17 +470,17 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" customWidth="1"/>
-    <col min="2" max="2" width="51.44140625" customWidth="1"/>
-    <col min="3" max="3" width="80.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.53125" customWidth="1"/>
+    <col min="2" max="2" width="51.46484375" customWidth="1"/>
+    <col min="3" max="3" width="80.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -502,7 +502,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -510,7 +513,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -518,7 +524,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -526,7 +535,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -534,7 +546,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -542,7 +557,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -550,7 +568,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
@@ -558,7 +579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -569,7 +590,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
@@ -577,7 +601,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -585,7 +612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -596,7 +623,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -604,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -615,7 +645,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -623,7 +656,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -631,7 +667,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -639,7 +678,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -647,7 +689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -658,7 +700,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
